--- a/docs/StructureDefinition-VACurrentEncounter.xlsx
+++ b/docs/StructureDefinition-VACurrentEncounter.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3544" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="510">
   <si>
     <t>Path</t>
   </si>
@@ -314,405 +314,402 @@
     <t>Encounter.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>Encounter.status</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
+  </si>
+  <si>
+    <t>Note that internal business rules will detemine the appropraite transitions that may occur between statuses (and also classes).
+This element is labeled as a modifier because the status contains codes that mark the encounter as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Current state of the encounter</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>List of past encounter statuses</t>
+  </si>
+  <si>
+    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.</t>
+  </si>
+  <si>
+    <t>The current status is always found in the current version of the resource, not the status history.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.status</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified status</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified status.</t>
+  </si>
+  <si>
+    <t>Encounter.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +.</t>
+  </si>
+  <si>
+    <t>Classification of the encounter</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v3-ActEncounterCode</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>PV1-2</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory</t>
+  </si>
+  <si>
+    <t>List of past encounter classes</t>
+  </si>
+  <si>
+    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.
+This would be used for a case where an admission starts of as an emergency encounter, then transisions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kindof discharge from emergency to inpatient.</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.id</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.extension</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.class</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.period</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified class</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified class.</t>
+  </si>
+  <si>
+    <t>Encounter.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Specific type of encounter</t>
+  </si>
+  <si>
+    <t>Specific type of encounter (e.g. e-mail consultation, surgical day-care, skilled nursing, rehabilitation).</t>
+  </si>
+  <si>
+    <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The type of encounter</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>PV1-4 / PV1-18</t>
+  </si>
+  <si>
+    <t>Encounter.priority</t>
+  </si>
+  <si>
+    <t>Indicates the urgency of the encounter</t>
+  </si>
+  <si>
+    <t>Indicates the urgency of the encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v3-ActPriority</t>
+  </si>
+  <si>
+    <t>.priorityCode</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>PV2-25</t>
+  </si>
+  <si>
+    <t>Encounter.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group)
+</t>
+  </si>
+  <si>
+    <t>The patient ro group present at the encounter</t>
+  </si>
+  <si>
+    <t>The patient ro group present at the encounter.</t>
+  </si>
+  <si>
+    <t>While the encounter is always about the patient, the patient may not actually be known in all contexts of use, and there may be a group of patients that could be anonymous (such as in a group therapy for Alcoholics Anonymous - where the recording of the encounter could be used for billing on the number of people/staff and not important to the context of the specific patients) or alternately in veterinary care a herd of sheep receiving treatment (where the animals are not individually tracked).</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ]/role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(EpisodeOfCare)
+</t>
+  </si>
+  <si>
+    <t>Episode(s) of care that this encounter should be recorded against</t>
+  </si>
+  <si>
+    <t>Where a specific encounter should be classified as a part of a specific episode(s) of care this field should be used. This association can facilitate grouping of related encounters together for a specific purpose, such as government reporting, issue tracking, association via a common problem.  The association is recorded on the encounter as these are typically created after the episode of care, and grouped on entry rather than editing the episode of care to append another encounter to it (the episode of care could span years).</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>PV1-54, PV1-53</t>
+  </si>
+  <si>
+    <t>Encounter.incomingReferral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ReferralRequest)
+</t>
+  </si>
+  <si>
+    <t>The ReferralRequest that initiated this encounter</t>
+  </si>
+  <si>
+    <t>The referral request this encounter satisfies (incoming referral).</t>
+  </si>
+  <si>
+    <t>.reason.ClinicalDocument</t>
+  </si>
+  <si>
+    <t>Encounter.participant</t>
+  </si>
+  <si>
+    <t>List of participants involved in the encounter</t>
+  </si>
+  <si>
+    <t>The list of people responsible for providing the service.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PFM]</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>Encounter.participant.id</t>
+  </si>
+  <si>
+    <t>Encounter.participant.extension</t>
+  </si>
+  <si>
+    <t>Encounter.participant.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.participant.type</t>
+  </si>
+  <si>
+    <t>Role of participant in encounter</t>
+  </si>
+  <si>
+    <t>Role of participant in encounter.</t>
+  </si>
+  <si>
+    <t>The participant type indicates how an individual partitipates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+  </si>
+  <si>
+    <t>.functionCode</t>
+  </si>
+  <si>
+    <t>ROL-3 (or maybe PRT-4)</t>
+  </si>
+  <si>
+    <t>Encounter.participant.type.id</t>
+  </si>
+  <si>
+    <t>Encounter.participant.type.extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>Encounter.status</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
-  </si>
-  <si>
-    <t>Note that internal business rules will detemine the appropraite transitions that may occur between statuses (and also classes).
-This element is labeled as a modifier because the status contains codes that mark the encounter as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Current state of the encounter</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>List of past encounter statuses</t>
-  </si>
-  <si>
-    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.</t>
-  </si>
-  <si>
-    <t>The current status is always found in the current version of the resource, not the status history.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.status</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>The time that the episode was in the specified status</t>
-  </si>
-  <si>
-    <t>The time that the episode was in the specified status.</t>
-  </si>
-  <si>
-    <t>Encounter.class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>inpatient | outpatient | ambulatory | emergency +</t>
-  </si>
-  <si>
-    <t>inpatient | outpatient | ambulatory | emergency +.</t>
-  </si>
-  <si>
-    <t>Classification of the encounter</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v3-ActEncounterCode</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>PV1-2</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory</t>
-  </si>
-  <si>
-    <t>List of past encounter classes</t>
-  </si>
-  <si>
-    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.
-This would be used for a case where an admission starts of as an emergency encounter, then transisions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kindof discharge from emergency to inpatient.</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.id</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.extension</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.class</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.period</t>
-  </si>
-  <si>
-    <t>The time that the episode was in the specified class</t>
-  </si>
-  <si>
-    <t>The time that the episode was in the specified class.</t>
-  </si>
-  <si>
-    <t>Encounter.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Specific type of encounter</t>
-  </si>
-  <si>
-    <t>Specific type of encounter (e.g. e-mail consultation, surgical day-care, skilled nursing, rehabilitation).</t>
-  </si>
-  <si>
-    <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The type of encounter</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>PV1-4 / PV1-18</t>
-  </si>
-  <si>
-    <t>Encounter.priority</t>
-  </si>
-  <si>
-    <t>Indicates the urgency of the encounter</t>
-  </si>
-  <si>
-    <t>Indicates the urgency of the encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v3-ActPriority</t>
-  </si>
-  <si>
-    <t>.priorityCode</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>PV2-25</t>
-  </si>
-  <si>
-    <t>Encounter.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group)
-</t>
-  </si>
-  <si>
-    <t>The patient ro group present at the encounter</t>
-  </si>
-  <si>
-    <t>The patient ro group present at the encounter.</t>
-  </si>
-  <si>
-    <t>While the encounter is always about the patient, the patient may not actually be known in all contexts of use, and there may be a group of patients that could be anonymous (such as in a group therapy for Alcoholics Anonymous - where the recording of the encounter could be used for billing on the number of people/staff and not important to the context of the specific patients) or alternately in veterinary care a herd of sheep receiving treatment (where the animals are not individually tracked).</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ]/role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>Encounter.episodeOfCare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare)
-</t>
-  </si>
-  <si>
-    <t>Episode(s) of care that this encounter should be recorded against</t>
-  </si>
-  <si>
-    <t>Where a specific encounter should be classified as a part of a specific episode(s) of care this field should be used. This association can facilitate grouping of related encounters together for a specific purpose, such as government reporting, issue tracking, association via a common problem.  The association is recorded on the encounter as these are typically created after the episode of care, and grouped on entry rather than editing the episode of care to append another encounter to it (the episode of care could span years).</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>PV1-54, PV1-53</t>
-  </si>
-  <si>
-    <t>Encounter.incomingReferral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ReferralRequest)
-</t>
-  </si>
-  <si>
-    <t>The ReferralRequest that initiated this encounter</t>
-  </si>
-  <si>
-    <t>The referral request this encounter satisfies (incoming referral).</t>
-  </si>
-  <si>
-    <t>.reason.ClinicalDocument</t>
-  </si>
-  <si>
-    <t>Encounter.participant</t>
-  </si>
-  <si>
-    <t>List of participants involved in the encounter</t>
-  </si>
-  <si>
-    <t>The list of people responsible for providing the service.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PFM]</t>
-  </si>
-  <si>
-    <t>ROL</t>
-  </si>
-  <si>
-    <t>Encounter.participant.id</t>
-  </si>
-  <si>
-    <t>Encounter.participant.extension</t>
-  </si>
-  <si>
-    <t>Encounter.participant.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.participant.type</t>
-  </si>
-  <si>
-    <t>Role of participant in encounter</t>
-  </si>
-  <si>
-    <t>Role of participant in encounter.</t>
-  </si>
-  <si>
-    <t>The participant type indicates how an individual partitipates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
-  </si>
-  <si>
-    <t>.functionCode</t>
-  </si>
-  <si>
-    <t>ROL-3 (or maybe PRT-4)</t>
-  </si>
-  <si>
-    <t>Encounter.participant.type.id</t>
-  </si>
-  <si>
-    <t>Encounter.participant.type.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Encounter.participant.type.coding</t>
@@ -2694,7 +2691,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2713,15 +2710,17 @@
         <v>43</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>43</v>
@@ -2758,14 +2757,16 @@
         <v>43</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>100</v>
@@ -2786,7 +2787,7 @@
         <v>43</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>43</v>
@@ -2801,7 +2802,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2820,16 +2821,16 @@
         <v>43</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2879,7 +2880,7 @@
         <v>43</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2908,7 +2909,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2931,13 +2932,13 @@
         <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2988,7 +2989,7 @@
         <v>43</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -3006,18 +3007,18 @@
         <v>43</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>113</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3043,13 +3044,13 @@
         <v>69</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3075,60 +3076,60 @@
         <v>43</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>123</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3151,16 +3152,16 @@
         <v>43</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3210,7 +3211,7 @@
         <v>43</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -3222,13 +3223,13 @@
         <v>43</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>43</v>
@@ -3239,7 +3240,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3262,13 +3263,13 @@
         <v>43</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3319,7 +3320,7 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3337,7 +3338,7 @@
         <v>43</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>43</v>
@@ -3348,11 +3349,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3371,16 +3372,16 @@
         <v>43</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3430,7 +3431,7 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3448,7 +3449,7 @@
         <v>43</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>43</v>
@@ -3459,11 +3460,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3482,16 +3483,16 @@
         <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3541,7 +3542,7 @@
         <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3570,7 +3571,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3596,10 +3597,10 @@
         <v>69</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3626,14 +3627,14 @@
         <v>43</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="X17" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>43</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>50</v>
@@ -3668,7 +3669,7 @@
         <v>43</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>43</v>
@@ -3679,7 +3680,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3702,13 +3703,13 @@
         <v>43</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3759,7 +3760,7 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>50</v>
@@ -3777,7 +3778,7 @@
         <v>43</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>43</v>
@@ -3788,7 +3789,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3811,13 +3812,13 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3847,57 +3848,57 @@
         <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3920,13 +3921,13 @@
         <v>43</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3977,7 +3978,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3989,13 +3990,13 @@
         <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>43</v>
@@ -4006,7 +4007,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4029,13 +4030,13 @@
         <v>43</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4086,7 +4087,7 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -4104,7 +4105,7 @@
         <v>43</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>43</v>
@@ -4115,11 +4116,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4138,16 +4139,16 @@
         <v>43</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4197,7 +4198,7 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -4215,7 +4216,7 @@
         <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>43</v>
@@ -4226,11 +4227,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4249,16 +4250,16 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4308,7 +4309,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4337,7 +4338,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4360,13 +4361,13 @@
         <v>43</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4396,10 +4397,10 @@
         <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>43</v>
@@ -4417,7 +4418,7 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>50</v>
@@ -4435,7 +4436,7 @@
         <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>43</v>
@@ -4446,7 +4447,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4469,13 +4470,13 @@
         <v>43</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4526,7 +4527,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>50</v>
@@ -4544,7 +4545,7 @@
         <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>43</v>
@@ -4555,7 +4556,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4578,16 +4579,16 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4613,13 +4614,13 @@
         <v>43</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>43</v>
@@ -4637,7 +4638,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4655,18 +4656,18 @@
         <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4689,13 +4690,13 @@
         <v>43</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4722,64 +4723,64 @@
         <v>43</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4798,16 +4799,16 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4857,7 +4858,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4875,18 +4876,18 @@
         <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4909,13 +4910,13 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4966,7 +4967,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4984,18 +4985,18 @@
         <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5018,13 +5019,13 @@
         <v>43</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5075,7 +5076,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -5093,7 +5094,7 @@
         <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>43</v>
@@ -5104,7 +5105,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5127,13 +5128,13 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5184,7 +5185,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5196,24 +5197,24 @@
         <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5236,13 +5237,13 @@
         <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5293,7 +5294,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5311,7 +5312,7 @@
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>43</v>
@@ -5322,11 +5323,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5345,16 +5346,16 @@
         <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5404,7 +5405,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5422,7 +5423,7 @@
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>43</v>
@@ -5433,11 +5434,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5456,16 +5457,16 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5515,7 +5516,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5544,7 +5545,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5567,16 +5568,16 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5605,11 +5606,11 @@
         <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>43</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5644,18 +5645,18 @@
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5678,13 +5679,13 @@
         <v>43</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5735,7 +5736,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5753,7 +5754,7 @@
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>43</v>
@@ -5764,11 +5765,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5787,16 +5788,16 @@
         <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5834,19 +5835,19 @@
         <v>43</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5864,7 +5865,7 @@
         <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>43</v>
@@ -5875,7 +5876,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5898,19 +5899,19 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>43</v>
@@ -5959,7 +5960,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5977,18 +5978,18 @@
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6011,13 +6012,13 @@
         <v>43</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6068,7 +6069,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -6086,7 +6087,7 @@
         <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>43</v>
@@ -6097,11 +6098,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6120,16 +6121,16 @@
         <v>43</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6167,19 +6168,19 @@
         <v>43</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6197,7 +6198,7 @@
         <v>43</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>43</v>
@@ -6208,7 +6209,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6234,23 +6235,23 @@
         <v>63</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>43</v>
@@ -6292,36 +6293,36 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6344,16 +6345,16 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6403,36 +6404,36 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6458,92 +6459,92 @@
         <v>69</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="R43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE43" t="s" s="2">
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AF43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>255</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6566,17 +6567,17 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>43</v>
@@ -6625,36 +6626,36 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AF44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>262</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6677,19 +6678,19 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>43</v>
@@ -6738,36 +6739,36 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>271</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6790,19 +6791,19 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>43</v>
@@ -6851,36 +6852,36 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AF46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6903,13 +6904,13 @@
         <v>43</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6960,7 +6961,7 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6978,25 +6979,25 @@
         <v>43</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>284</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E48" t="s" s="2">
         <v>41</v>
@@ -7014,13 +7015,13 @@
         <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7071,7 +7072,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -7086,21 +7087,21 @@
         <v>43</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>293</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7123,13 +7124,13 @@
         <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7180,7 +7181,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7198,18 +7199,18 @@
         <v>43</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7232,16 +7233,16 @@
         <v>43</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7291,7 +7292,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7309,18 +7310,18 @@
         <v>43</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7343,13 +7344,13 @@
         <v>43</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7400,7 +7401,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7418,7 +7419,7 @@
         <v>43</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>43</v>
@@ -7429,11 +7430,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7452,16 +7453,16 @@
         <v>43</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7499,19 +7500,19 @@
         <v>43</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7529,7 +7530,7 @@
         <v>43</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>43</v>
@@ -7540,14 +7541,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E53" t="s" s="2">
         <v>41</v>
@@ -7565,16 +7566,16 @@
         <v>51</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7624,36 +7625,36 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH53" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH53" t="s" s="2">
+      <c r="AI53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AI53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
+      <c r="AK53" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7676,97 +7677,97 @@
         <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P54" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Q54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Q54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE54" t="s" s="2">
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>327</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7789,16 +7790,16 @@
         <v>43</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7848,7 +7849,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7866,22 +7867,22 @@
         <v>43</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7900,16 +7901,16 @@
         <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7935,14 +7936,14 @@
         <v>43</v>
       </c>
       <c r="W56" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="X56" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="X56" t="s" s="2">
+      <c r="Y56" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>43</v>
       </c>
@@ -7959,7 +7960,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7977,18 +7978,18 @@
         <v>43</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>345</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8011,13 +8012,13 @@
         <v>43</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8068,7 +8069,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -8086,7 +8087,7 @@
         <v>43</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>43</v>
@@ -8097,11 +8098,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8120,16 +8121,16 @@
         <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8167,19 +8168,19 @@
         <v>43</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8197,7 +8198,7 @@
         <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>43</v>
@@ -8208,7 +8209,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8231,19 +8232,19 @@
         <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
@@ -8292,7 +8293,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8310,18 +8311,18 @@
         <v>43</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8344,13 +8345,13 @@
         <v>43</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8401,7 +8402,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8419,7 +8420,7 @@
         <v>43</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>43</v>
@@ -8430,11 +8431,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8453,16 +8454,16 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8500,19 +8501,19 @@
         <v>43</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8530,7 +8531,7 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>43</v>
@@ -8541,7 +8542,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8567,16 +8568,16 @@
         <v>63</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>43</v>
@@ -8625,36 +8626,36 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8677,16 +8678,16 @@
         <v>51</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8736,43 +8737,43 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AF63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AL63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>247</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E64" t="s" s="2">
         <v>41</v>
@@ -8793,14 +8794,14 @@
         <v>69</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>43</v>
@@ -8849,36 +8850,36 @@
         <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AF64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>255</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8901,17 +8902,17 @@
         <v>51</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>43</v>
@@ -8960,36 +8961,36 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AF65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK65" t="s" s="2">
+      <c r="AL65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>262</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9012,19 +9013,19 @@
         <v>51</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>43</v>
@@ -9073,36 +9074,36 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AF66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AL66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>271</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9125,19 +9126,19 @@
         <v>51</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>43</v>
@@ -9186,36 +9187,36 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AF67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AL67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9238,13 +9239,13 @@
         <v>51</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9295,7 +9296,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9307,13 +9308,13 @@
         <v>43</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>43</v>
@@ -9324,7 +9325,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9347,13 +9348,13 @@
         <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9404,7 +9405,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9422,7 +9423,7 @@
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>43</v>
@@ -9433,11 +9434,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9456,16 +9457,16 @@
         <v>43</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9515,7 +9516,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9533,7 +9534,7 @@
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>43</v>
@@ -9544,11 +9545,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9567,16 +9568,16 @@
         <v>51</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9626,7 +9627,7 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9655,11 +9656,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9678,16 +9679,16 @@
         <v>43</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="M72" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9737,7 +9738,7 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>50</v>
@@ -9755,18 +9756,18 @@
         <v>43</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9789,13 +9790,13 @@
         <v>43</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9822,14 +9823,14 @@
         <v>43</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="Z73" t="s" s="2">
         <v>43</v>
       </c>
@@ -9846,7 +9847,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9864,7 +9865,7 @@
         <v>43</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>43</v>
@@ -9875,7 +9876,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9898,13 +9899,13 @@
         <v>43</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9955,7 +9956,7 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9973,7 +9974,7 @@
         <v>43</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>43</v>
@@ -9984,7 +9985,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10007,16 +10008,16 @@
         <v>43</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10066,7 +10067,7 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -10084,7 +10085,7 @@
         <v>43</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>43</v>
@@ -10095,7 +10096,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10118,16 +10119,16 @@
         <v>43</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10177,7 +10178,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10189,13 +10190,13 @@
         <v>43</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>43</v>
@@ -10206,7 +10207,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10229,13 +10230,13 @@
         <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10286,7 +10287,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10304,7 +10305,7 @@
         <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>43</v>
@@ -10315,11 +10316,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10338,16 +10339,16 @@
         <v>43</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10397,7 +10398,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10415,7 +10416,7 @@
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>43</v>
@@ -10426,11 +10427,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10449,16 +10450,16 @@
         <v>51</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10508,7 +10509,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10537,7 +10538,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10560,13 +10561,13 @@
         <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10617,7 +10618,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10635,18 +10636,18 @@
         <v>43</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10669,13 +10670,13 @@
         <v>43</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10726,7 +10727,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10744,7 +10745,7 @@
         <v>43</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>43</v>
@@ -10755,7 +10756,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10778,13 +10779,13 @@
         <v>43</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10811,60 +10812,60 @@
         <v>43</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="Y82" t="s" s="2">
+      <c r="Z82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="Z82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK82" t="s" s="2">
+      <c r="AL82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10887,13 +10888,13 @@
         <v>43</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10920,60 +10921,60 @@
         <v>43</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="X83" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Y83" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="Y83" t="s" s="2">
+      <c r="Z83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>420</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10996,19 +10997,19 @@
         <v>43</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>43</v>
@@ -11033,14 +11034,14 @@
         <v>43</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="X84" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y84" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Y84" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="Z84" t="s" s="2">
         <v>43</v>
       </c>
@@ -11057,7 +11058,7 @@
         <v>43</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -11075,18 +11076,18 @@
         <v>43</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11109,13 +11110,13 @@
         <v>43</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11142,14 +11143,14 @@
         <v>43</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="Y85" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="Z85" t="s" s="2">
         <v>43</v>
       </c>
@@ -11166,7 +11167,7 @@
         <v>43</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -11184,18 +11185,18 @@
         <v>43</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>436</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11218,13 +11219,13 @@
         <v>43</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11251,14 +11252,14 @@
         <v>43</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="Y86" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="Z86" t="s" s="2">
         <v>43</v>
       </c>
@@ -11275,7 +11276,7 @@
         <v>43</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11293,18 +11294,18 @@
         <v>43</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11327,13 +11328,13 @@
         <v>43</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11384,7 +11385,7 @@
         <v>43</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11402,18 +11403,18 @@
         <v>43</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>448</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11436,13 +11437,13 @@
         <v>43</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11469,60 +11470,60 @@
         <v>43</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="Y88" t="s" s="2">
+      <c r="Z88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK88" t="s" s="2">
+      <c r="AL88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11545,16 +11546,16 @@
         <v>43</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -11604,7 +11605,7 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11616,13 +11617,13 @@
         <v>43</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>43</v>
@@ -11633,7 +11634,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11656,13 +11657,13 @@
         <v>43</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11713,7 +11714,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11731,7 +11732,7 @@
         <v>43</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>43</v>
@@ -11742,11 +11743,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11765,16 +11766,16 @@
         <v>43</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -11824,7 +11825,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11842,7 +11843,7 @@
         <v>43</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>43</v>
@@ -11853,11 +11854,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11876,16 +11877,16 @@
         <v>51</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11935,7 +11936,7 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -11964,7 +11965,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11987,13 +11988,13 @@
         <v>43</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12044,7 +12045,7 @@
         <v>43</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>50</v>
@@ -12062,18 +12063,18 @@
         <v>43</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>468</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12096,13 +12097,13 @@
         <v>43</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12153,7 +12154,7 @@
         <v>43</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -12171,7 +12172,7 @@
         <v>43</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>43</v>
@@ -12182,11 +12183,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12205,16 +12206,16 @@
         <v>43</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12252,19 +12253,19 @@
         <v>43</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AC95" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
@@ -12282,7 +12283,7 @@
         <v>43</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>43</v>
@@ -12293,7 +12294,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12316,16 +12317,16 @@
         <v>51</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -12375,16 +12376,16 @@
         <v>43</v>
       </c>
       <c r="AE96" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH96" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>43</v>
@@ -12404,14 +12405,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D97" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E97" t="s" s="2">
         <v>41</v>
@@ -12429,16 +12430,16 @@
         <v>51</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -12488,25 +12489,25 @@
         <v>43</v>
       </c>
       <c r="AE97" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AF97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
+      <c r="AK97" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>43</v>
@@ -12517,7 +12518,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12540,16 +12541,16 @@
         <v>51</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12599,7 +12600,7 @@
         <v>43</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -12628,7 +12629,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12654,13 +12655,13 @@
         <v>69</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12686,49 +12687,49 @@
         <v>43</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X99" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="Y99" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="Y99" t="s" s="2">
+      <c r="Z99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK99" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>43</v>
@@ -12739,7 +12740,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12762,13 +12763,13 @@
         <v>43</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12819,7 +12820,7 @@
         <v>43</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -12837,7 +12838,7 @@
         <v>43</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>43</v>
@@ -12848,7 +12849,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12871,13 +12872,13 @@
         <v>43</v>
       </c>
       <c r="J101" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="K101" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="K101" t="s" s="2">
+      <c r="L101" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12928,7 +12929,7 @@
         <v>43</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -12946,18 +12947,18 @@
         <v>43</v>
       </c>
       <c r="AK101" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>504</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12980,16 +12981,16 @@
         <v>43</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="K102" t="s" s="2">
+      <c r="L102" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13039,7 +13040,7 @@
         <v>43</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -13057,7 +13058,7 @@
         <v>43</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>43</v>

--- a/docs/StructureDefinition-VACurrentEncounter.xlsx
+++ b/docs/StructureDefinition-VACurrentEncounter.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$98</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="491">
   <si>
     <t>Path</t>
   </si>
@@ -349,14 +349,20 @@
     <t>Encounter.identifier</t>
   </si>
   <si>
+    <t>CURRENT ADMISSION</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>Identifier(s) by which this encounter is known</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known.</t>
+    <t>Current Admission</t>
+  </si>
+  <si>
+    <t>This field contains the internal entry number of the PATIENT MOVEMENT file denoting the current admission for an inpatient.  This field is only stored for current inpatients.  It must NOT be edited as this could affect the integrity of many options within MAS and other DHCP packages.  When displaying this field, the date/time of the current admission will be displayed.</t>
+  </si>
+  <si>
+    <t>Patient  @CURRENT ADMISSION 2-.105</t>
   </si>
   <si>
     <t>.id</t>
@@ -594,7 +600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/VAPatient)
 </t>
   </si>
   <si>
@@ -965,71 +971,6 @@
   </si>
   <si>
     <t>PV1-44, PV1-45</t>
-  </si>
-  <si>
-    <t>Encounter.period.id</t>
-  </si>
-  <si>
-    <t>Encounter.period.extension</t>
-  </si>
-  <si>
-    <t>Encounter.period.start</t>
-  </si>
-  <si>
-    <t>CURRENT ADMISSION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Current Admission</t>
-  </si>
-  <si>
-    <t>This field contains the internal entry number of the PATIENT MOVEMENT file denoting the current admission for an inpatient.  This field is only stored for current inpatients.  It must NOT be edited as this could affect the integrity of many options within MAS and other DHCP packages.  When displaying this field, the date/time of the current admission will be displayed.</t>
-  </si>
-  <si>
-    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
-  </si>
-  <si>
-    <t>Period.start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per-1
-</t>
-  </si>
-  <si>
-    <t>Patient  @CURRENT ADMISSION 2-.105</t>
-  </si>
-  <si>
-    <t>./low</t>
-  </si>
-  <si>
-    <t>DR.1</t>
-  </si>
-  <si>
-    <t>Encounter.period.end</t>
-  </si>
-  <si>
-    <t>End time with inclusive boundary, if not ongoing</t>
-  </si>
-  <si>
-    <t>The end of the period. If the end of the period is missing, it means that the period is ongoing. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
-  </si>
-  <si>
-    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has a end value of 2012-02-03.</t>
-  </si>
-  <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
-  </si>
-  <si>
-    <t>Period.end</t>
-  </si>
-  <si>
-    <t>./high</t>
-  </si>
-  <si>
-    <t>DR.2</t>
   </si>
   <si>
     <t>Encounter.length</t>
@@ -1492,10 +1433,10 @@
     <t>Encounter.location.location.identifier</t>
   </si>
   <si>
-    <t>ROOM-BED</t>
-  </si>
-  <si>
-    <t>If desired, for this inpatient, enter the room and bed indicator to which s/he is assigned in 'ROOM-BED' format.</t>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the other resource. This is used when there is no way to reference the other resource directly, either because the entity is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
   </si>
   <si>
     <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
@@ -1506,25 +1447,25 @@
     <t>Reference.identifier</t>
   </si>
   <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Encounter.location.location.display</t>
+  </si>
+  <si>
+    <t>ROOM-BED</t>
+  </si>
+  <si>
+    <t>If desired, for this inpatient, enter the room and bed indicator to which s/he is assigned in 'ROOM-BED' format.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>Patient File @ROOM-BED 2-.101</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Encounter.location.location.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Encounter.location.status</t>
@@ -1743,7 +1684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM102"/>
+  <dimension ref="A1:AM98"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2907,7 +2848,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>105</v>
       </c>
@@ -2915,7 +2856,9 @@
       <c r="C11" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="E11" t="s" s="2">
         <v>41</v>
       </c>
@@ -2923,7 +2866,7 @@
         <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>43</v>
@@ -2932,13 +2875,13 @@
         <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3004,21 +2947,21 @@
         <v>43</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3044,13 +2987,13 @@
         <v>69</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3076,13 +3019,13 @@
         <v>43</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>43</v>
@@ -3100,7 +3043,7 @@
         <v>43</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>50</v>
@@ -3118,18 +3061,18 @@
         <v>43</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3152,16 +3095,16 @@
         <v>43</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3211,7 +3154,7 @@
         <v>43</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -3223,13 +3166,13 @@
         <v>43</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>43</v>
@@ -3240,7 +3183,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3263,13 +3206,13 @@
         <v>43</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3320,7 +3263,7 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3338,7 +3281,7 @@
         <v>43</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>43</v>
@@ -3349,7 +3292,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3378,7 +3321,7 @@
         <v>97</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>99</v>
@@ -3431,7 +3374,7 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3449,7 +3392,7 @@
         <v>43</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>43</v>
@@ -3460,11 +3403,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3489,7 +3432,7 @@
         <v>102</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>99</v>
@@ -3542,7 +3485,7 @@
         <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3571,7 +3514,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3597,10 +3540,10 @@
         <v>69</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3627,13 +3570,13 @@
         <v>43</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>43</v>
@@ -3651,7 +3594,7 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>50</v>
@@ -3669,7 +3612,7 @@
         <v>43</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>43</v>
@@ -3680,7 +3623,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3703,13 +3646,13 @@
         <v>43</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3760,7 +3703,7 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>50</v>
@@ -3778,7 +3721,7 @@
         <v>43</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>43</v>
@@ -3789,7 +3732,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3812,13 +3755,13 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3848,10 +3791,10 @@
         <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>43</v>
@@ -3869,7 +3812,7 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3887,18 +3830,18 @@
         <v>43</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3921,13 +3864,13 @@
         <v>43</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3978,7 +3921,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3990,13 +3933,13 @@
         <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>43</v>
@@ -4007,7 +3950,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4030,13 +3973,13 @@
         <v>43</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4087,7 +4030,7 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -4105,7 +4048,7 @@
         <v>43</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>43</v>
@@ -4116,7 +4059,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4145,7 +4088,7 @@
         <v>97</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>99</v>
@@ -4198,7 +4141,7 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -4216,7 +4159,7 @@
         <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>43</v>
@@ -4227,11 +4170,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4256,7 +4199,7 @@
         <v>102</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>99</v>
@@ -4309,7 +4252,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4338,7 +4281,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4361,13 +4304,13 @@
         <v>43</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4397,10 +4340,10 @@
         <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>43</v>
@@ -4418,7 +4361,7 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>50</v>
@@ -4436,7 +4379,7 @@
         <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>43</v>
@@ -4447,7 +4390,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4470,13 +4413,13 @@
         <v>43</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4527,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>50</v>
@@ -4545,7 +4488,7 @@
         <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>43</v>
@@ -4556,7 +4499,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4579,16 +4522,16 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4614,13 +4557,13 @@
         <v>43</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>43</v>
@@ -4638,7 +4581,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4656,18 +4599,18 @@
         <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4690,13 +4633,13 @@
         <v>43</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4723,32 +4666,32 @@
         <v>43</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
@@ -4765,22 +4708,22 @@
         <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4790,7 +4733,7 @@
         <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>43</v>
@@ -4799,16 +4742,16 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4858,7 +4801,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4876,18 +4819,18 @@
         <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4910,13 +4853,13 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4967,7 +4910,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4985,18 +4928,18 @@
         <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5019,13 +4962,13 @@
         <v>43</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5076,7 +5019,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -5094,7 +5037,7 @@
         <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>43</v>
@@ -5105,7 +5048,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5128,13 +5071,13 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5185,7 +5128,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5197,24 +5140,24 @@
         <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5237,13 +5180,13 @@
         <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5294,7 +5237,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5312,7 +5255,7 @@
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>43</v>
@@ -5323,7 +5266,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5352,7 +5295,7 @@
         <v>97</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>99</v>
@@ -5405,7 +5348,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5423,7 +5366,7 @@
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>43</v>
@@ -5434,11 +5377,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5463,7 +5406,7 @@
         <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>99</v>
@@ -5516,7 +5459,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5545,7 +5488,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5568,16 +5511,16 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5606,10 +5549,10 @@
         <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>43</v>
@@ -5627,7 +5570,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5645,18 +5588,18 @@
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5679,13 +5622,13 @@
         <v>43</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5736,7 +5679,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5754,7 +5697,7 @@
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>43</v>
@@ -5765,7 +5708,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5794,7 +5737,7 @@
         <v>97</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>99</v>
@@ -5835,19 +5778,19 @@
         <v>43</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5865,7 +5808,7 @@
         <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>43</v>
@@ -5876,7 +5819,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5899,19 +5842,19 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>43</v>
@@ -5960,7 +5903,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5978,18 +5921,18 @@
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6012,13 +5955,13 @@
         <v>43</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6069,7 +6012,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -6087,7 +6030,7 @@
         <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>43</v>
@@ -6098,7 +6041,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6127,7 +6070,7 @@
         <v>97</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>99</v>
@@ -6168,19 +6111,19 @@
         <v>43</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6198,7 +6141,7 @@
         <v>43</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>43</v>
@@ -6209,7 +6152,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6235,23 +6178,23 @@
         <v>63</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>43</v>
@@ -6293,7 +6236,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6311,18 +6254,18 @@
         <v>43</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6345,16 +6288,16 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6404,7 +6347,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6422,18 +6365,18 @@
         <v>43</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6459,21 +6402,21 @@
         <v>69</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>43</v>
@@ -6515,7 +6458,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6533,18 +6476,18 @@
         <v>43</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6567,17 +6510,17 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>43</v>
@@ -6626,7 +6569,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6644,18 +6587,18 @@
         <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6678,19 +6621,19 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>43</v>
@@ -6739,7 +6682,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6757,18 +6700,18 @@
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6791,19 +6734,19 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>43</v>
@@ -6852,7 +6795,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6870,18 +6813,18 @@
         <v>43</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6904,13 +6847,13 @@
         <v>43</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6961,7 +6904,7 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6979,25 +6922,25 @@
         <v>43</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E48" t="s" s="2">
         <v>41</v>
@@ -7015,13 +6958,13 @@
         <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7072,7 +7015,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -7087,21 +7030,21 @@
         <v>43</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7124,13 +7067,13 @@
         <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7181,7 +7124,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7199,18 +7142,18 @@
         <v>43</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7233,16 +7176,16 @@
         <v>43</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7292,7 +7235,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7310,18 +7253,18 @@
         <v>43</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7344,15 +7287,17 @@
         <v>43</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>310</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>43</v>
@@ -7401,7 +7346,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>133</v>
+        <v>308</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7419,22 +7364,22 @@
         <v>43</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>128</v>
+        <v>313</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>43</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>95</v>
+        <v>316</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7450,19 +7395,19 @@
         <v>43</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>97</v>
+        <v>317</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>135</v>
+        <v>318</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>99</v>
+        <v>319</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7488,31 +7433,31 @@
         <v>43</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>43</v>
+        <v>321</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>136</v>
+        <v>315</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7530,26 +7475,24 @@
         <v>43</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>128</v>
+        <v>323</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D53" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>41</v>
       </c>
@@ -7557,26 +7500,24 @@
         <v>50</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>310</v>
+        <v>132</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7625,7 +7566,7 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>314</v>
+        <v>135</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7634,38 +7575,38 @@
         <v>50</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>315</v>
+        <v>43</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>316</v>
+        <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>317</v>
+        <v>130</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>318</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>43</v>
@@ -7674,27 +7615,25 @@
         <v>43</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>310</v>
+        <v>96</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>320</v>
+        <v>97</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>321</v>
+        <v>137</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="P54" t="s" s="2">
-        <v>323</v>
-      </c>
+      <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>43</v>
       </c>
@@ -7726,28 +7665,28 @@
         <v>43</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>324</v>
+        <v>138</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>315</v>
+        <v>43</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>43</v>
@@ -7756,18 +7695,18 @@
         <v>43</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>325</v>
+        <v>130</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>326</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7778,7 +7717,7 @@
         <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>43</v>
@@ -7787,21 +7726,23 @@
         <v>43</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>328</v>
+        <v>149</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>330</v>
+        <v>226</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>43</v>
       </c>
@@ -7849,13 +7790,13 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>327</v>
+        <v>229</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>43</v>
@@ -7867,29 +7808,29 @@
         <v>43</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>332</v>
+        <v>230</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>333</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>335</v>
+        <v>43</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>43</v>
@@ -7898,20 +7839,18 @@
         <v>43</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>336</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -7936,13 +7875,13 @@
         <v>43</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>339</v>
+        <v>43</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>341</v>
+        <v>43</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>43</v>
@@ -7960,13 +7899,13 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>334</v>
+        <v>135</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>43</v>
@@ -7978,29 +7917,29 @@
         <v>43</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>342</v>
+        <v>130</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>343</v>
+        <v>43</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>344</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>43</v>
@@ -8012,15 +7951,17 @@
         <v>43</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -8057,25 +7998,25 @@
         <v>43</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>43</v>
@@ -8087,7 +8028,7 @@
         <v>43</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>43</v>
@@ -8098,18 +8039,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>43</v>
@@ -8118,21 +8059,23 @@
         <v>43</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>43</v>
       </c>
@@ -8168,25 +8111,25 @@
         <v>43</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>43</v>
@@ -8198,18 +8141,18 @@
         <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>43</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8220,7 +8163,7 @@
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>43</v>
@@ -8232,20 +8175,18 @@
         <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>43</v>
       </c>
@@ -8293,13 +8234,13 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>43</v>
@@ -8311,24 +8252,26 @@
         <v>43</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>229</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="E60" t="s" s="2">
         <v>41</v>
       </c>
@@ -8336,25 +8279,27 @@
         <v>50</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>132</v>
+        <v>336</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>43</v>
       </c>
@@ -8402,7 +8347,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>133</v>
+        <v>254</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8417,32 +8362,32 @@
         <v>43</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>43</v>
+        <v>337</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>43</v>
+        <v>256</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>43</v>
@@ -8451,21 +8396,21 @@
         <v>43</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>43</v>
       </c>
@@ -8501,25 +8446,25 @@
         <v>43</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>136</v>
+        <v>261</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>43</v>
@@ -8531,18 +8476,18 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>43</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8565,19 +8510,19 @@
         <v>51</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>63</v>
+        <v>265</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>43</v>
@@ -8626,7 +8571,7 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8644,18 +8589,18 @@
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>239</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8678,18 +8623,20 @@
         <v>51</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>43</v>
       </c>
@@ -8737,7 +8684,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8755,34 +8702,32 @@
         <v>43</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>246</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D64" t="s" s="2">
-        <v>353</v>
-      </c>
+      <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>43</v>
@@ -8791,18 +8736,16 @@
         <v>51</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>43</v>
       </c>
@@ -8850,36 +8793,36 @@
         <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>252</v>
+        <v>341</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>356</v>
+        <v>43</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>254</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8899,21 +8842,19 @@
         <v>43</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>256</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>257</v>
+        <v>134</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>258</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>43</v>
       </c>
@@ -8961,7 +8902,7 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>259</v>
+        <v>135</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8979,29 +8920,29 @@
         <v>43</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>261</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>43</v>
@@ -9010,23 +8951,21 @@
         <v>43</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>263</v>
+        <v>96</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>264</v>
+        <v>97</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>265</v>
+        <v>137</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>43</v>
       </c>
@@ -9074,13 +9013,13 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>43</v>
@@ -9092,54 +9031,52 @@
         <v>43</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>270</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>272</v>
+        <v>102</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>273</v>
+        <v>141</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>43</v>
       </c>
@@ -9187,13 +9124,13 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>43</v>
@@ -9205,29 +9142,29 @@
         <v>43</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>277</v>
+        <v>93</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>278</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>43</v>
+        <v>349</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>43</v>
@@ -9236,18 +9173,20 @@
         <v>43</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>123</v>
+        <v>350</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>43</v>
@@ -9296,36 +9235,36 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>43</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9348,13 +9287,13 @@
         <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>131</v>
+        <v>356</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>132</v>
+        <v>357</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9381,13 +9320,13 @@
         <v>43</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>43</v>
+        <v>358</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>43</v>
+        <v>359</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>43</v>
@@ -9405,7 +9344,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>133</v>
+        <v>355</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9423,7 +9362,7 @@
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>43</v>
@@ -9434,18 +9373,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>43</v>
@@ -9457,17 +9396,15 @@
         <v>43</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>96</v>
+        <v>361</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>97</v>
+        <v>362</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>43</v>
@@ -9516,13 +9453,13 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>136</v>
+        <v>360</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>43</v>
@@ -9534,7 +9471,7 @@
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>128</v>
+        <v>364</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>43</v>
@@ -9545,11 +9482,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9562,22 +9499,22 @@
         <v>43</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>96</v>
+        <v>366</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>102</v>
+        <v>367</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>139</v>
+        <v>368</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>99</v>
+        <v>369</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9627,7 +9564,7 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>140</v>
+        <v>365</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9645,7 +9582,7 @@
         <v>43</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>93</v>
+        <v>370</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>43</v>
@@ -9656,15 +9593,15 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>368</v>
+        <v>43</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>50</v>
@@ -9679,16 +9616,16 @@
         <v>43</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>369</v>
+        <v>125</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9738,10 +9675,10 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>50</v>
@@ -9750,24 +9687,24 @@
         <v>43</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>343</v>
+        <v>43</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>373</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9790,13 +9727,13 @@
         <v>43</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>375</v>
+        <v>133</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>376</v>
+        <v>134</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9823,13 +9760,13 @@
         <v>43</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>339</v>
+        <v>43</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>377</v>
+        <v>43</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>378</v>
+        <v>43</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>43</v>
@@ -9847,7 +9784,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>374</v>
+        <v>135</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9865,7 +9802,7 @@
         <v>43</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>43</v>
@@ -9876,18 +9813,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>43</v>
@@ -9899,15 +9836,17 @@
         <v>43</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>380</v>
+        <v>96</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>381</v>
+        <v>97</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>43</v>
@@ -9956,13 +9895,13 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>379</v>
+        <v>138</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>43</v>
@@ -9974,7 +9913,7 @@
         <v>43</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>383</v>
+        <v>130</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>43</v>
@@ -9985,11 +9924,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10002,22 +9941,22 @@
         <v>43</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>385</v>
+        <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>386</v>
+        <v>102</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>387</v>
+        <v>141</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>388</v>
+        <v>99</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10067,7 +10006,7 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>384</v>
+        <v>142</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -10085,7 +10024,7 @@
         <v>43</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>389</v>
+        <v>93</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>43</v>
@@ -10096,7 +10035,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10119,17 +10058,15 @@
         <v>43</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>43</v>
@@ -10178,7 +10115,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10190,24 +10127,24 @@
         <v>43</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>394</v>
+        <v>111</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>43</v>
+        <v>382</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10230,13 +10167,13 @@
         <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>130</v>
+        <v>384</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>131</v>
+        <v>385</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>132</v>
+        <v>386</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10287,7 +10224,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>133</v>
+        <v>383</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10305,7 +10242,7 @@
         <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>128</v>
+        <v>387</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>43</v>
@@ -10316,18 +10253,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>43</v>
@@ -10339,17 +10276,15 @@
         <v>43</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>97</v>
+        <v>389</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>43</v>
@@ -10374,13 +10309,13 @@
         <v>43</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>43</v>
+        <v>391</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>43</v>
+        <v>392</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>43</v>
@@ -10398,13 +10333,13 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>136</v>
+        <v>388</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>43</v>
@@ -10416,51 +10351,49 @@
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>128</v>
+        <v>393</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>43</v>
+        <v>394</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>102</v>
+        <v>396</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -10485,13 +10418,13 @@
         <v>43</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>43</v>
+        <v>398</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>43</v>
+        <v>399</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>43</v>
@@ -10509,13 +10442,13 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>140</v>
+        <v>395</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>43</v>
@@ -10527,18 +10460,18 @@
         <v>43</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>43</v>
+        <v>400</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10549,7 +10482,7 @@
         <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>43</v>
@@ -10561,16 +10494,20 @@
         <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
       </c>
@@ -10594,13 +10531,13 @@
         <v>43</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>43</v>
+        <v>406</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>43</v>
+        <v>407</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>43</v>
@@ -10618,13 +10555,13 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>43</v>
@@ -10636,18 +10573,18 @@
         <v>43</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>109</v>
+        <v>408</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10658,7 +10595,7 @@
         <v>41</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>43</v>
@@ -10670,13 +10607,13 @@
         <v>43</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>403</v>
+        <v>168</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10703,13 +10640,13 @@
         <v>43</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>43</v>
+        <v>413</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>43</v>
+        <v>414</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>43</v>
@@ -10727,13 +10664,13 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>43</v>
@@ -10745,18 +10682,18 @@
         <v>43</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>43</v>
+        <v>416</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10767,7 +10704,7 @@
         <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>43</v>
@@ -10779,13 +10716,13 @@
         <v>43</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10812,13 +10749,13 @@
         <v>43</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>43</v>
@@ -10836,13 +10773,13 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>43</v>
@@ -10854,18 +10791,18 @@
         <v>43</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10888,13 +10825,13 @@
         <v>43</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>166</v>
+        <v>384</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10921,13 +10858,13 @@
         <v>43</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>418</v>
+        <v>43</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>43</v>
@@ -10945,7 +10882,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10963,18 +10900,18 @@
         <v>43</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>128</v>
+        <v>427</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10985,7 +10922,7 @@
         <v>41</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>43</v>
@@ -10997,20 +10934,16 @@
         <v>43</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>43</v>
       </c>
@@ -11034,13 +10967,13 @@
         <v>43</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>43</v>
@@ -11058,13 +10991,13 @@
         <v>43</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>43</v>
@@ -11076,18 +11009,18 @@
         <v>43</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11110,15 +11043,17 @@
         <v>43</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>43</v>
@@ -11143,13 +11078,13 @@
         <v>43</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>339</v>
+        <v>43</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>432</v>
+        <v>43</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>433</v>
+        <v>43</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>43</v>
@@ -11167,7 +11102,7 @@
         <v>43</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -11179,24 +11114,24 @@
         <v>43</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>435</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11207,7 +11142,7 @@
         <v>41</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>43</v>
@@ -11219,13 +11154,13 @@
         <v>43</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>437</v>
+        <v>133</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>438</v>
+        <v>134</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11252,13 +11187,13 @@
         <v>43</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>339</v>
+        <v>43</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>439</v>
+        <v>43</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>440</v>
+        <v>43</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>43</v>
@@ -11276,13 +11211,13 @@
         <v>43</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>436</v>
+        <v>135</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>43</v>
@@ -11294,29 +11229,29 @@
         <v>43</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>441</v>
+        <v>130</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>442</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>43</v>
@@ -11328,15 +11263,17 @@
         <v>43</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>403</v>
+        <v>96</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>444</v>
+        <v>97</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>43</v>
@@ -11385,13 +11322,13 @@
         <v>43</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>443</v>
+        <v>138</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>43</v>
@@ -11403,49 +11340,51 @@
         <v>43</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>446</v>
+        <v>130</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>447</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>449</v>
+        <v>102</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>43</v>
@@ -11470,13 +11409,13 @@
         <v>43</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>451</v>
+        <v>43</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>452</v>
+        <v>43</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>43</v>
@@ -11494,13 +11433,13 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>448</v>
+        <v>142</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>43</v>
@@ -11512,18 +11451,18 @@
         <v>43</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>453</v>
+        <v>93</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>454</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11531,10 +11470,10 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>43</v>
@@ -11546,17 +11485,15 @@
         <v>43</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>123</v>
+        <v>384</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>43</v>
@@ -11605,36 +11542,36 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>459</v>
+        <v>292</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>43</v>
+        <v>447</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>43</v>
+        <v>448</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11657,13 +11594,13 @@
         <v>43</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11714,7 +11651,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11732,7 +11669,7 @@
         <v>43</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>43</v>
@@ -11743,7 +11680,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11772,7 +11709,7 @@
         <v>97</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>99</v>
@@ -11813,19 +11750,19 @@
         <v>43</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11843,7 +11780,7 @@
         <v>43</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>43</v>
@@ -11854,39 +11791,39 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>102</v>
+        <v>452</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>139</v>
+        <v>453</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>99</v>
+        <v>454</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11936,16 +11873,16 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>140</v>
+        <v>455</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>43</v>
+        <v>456</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>43</v>
@@ -11965,7 +11902,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11973,7 +11910,7 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>50</v>
@@ -11985,18 +11922,20 @@
         <v>43</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>403</v>
+        <v>107</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>43</v>
@@ -12045,42 +11984,44 @@
         <v>43</v>
       </c>
       <c r="AE93" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="E94" t="s" s="2">
         <v>41</v>
       </c>
@@ -12088,24 +12029,26 @@
         <v>50</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>131</v>
+        <v>464</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>43</v>
@@ -12154,7 +12097,7 @@
         <v>43</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>133</v>
+        <v>467</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -12169,10 +12112,10 @@
         <v>43</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>43</v>
+        <v>468</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>43</v>
@@ -12187,14 +12130,14 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>43</v>
@@ -12206,16 +12149,16 @@
         <v>43</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>97</v>
+        <v>470</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>135</v>
+        <v>471</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>99</v>
+        <v>472</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12241,37 +12184,37 @@
         <v>43</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>43</v>
+        <v>473</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>43</v>
+        <v>474</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="AC95" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>136</v>
+        <v>469</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>43</v>
@@ -12283,7 +12226,7 @@
         <v>43</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>128</v>
+        <v>475</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>43</v>
@@ -12294,7 +12237,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12314,20 +12257,18 @@
         <v>43</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>43</v>
@@ -12376,7 +12317,7 @@
         <v>43</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>41</v>
@@ -12385,7 +12326,7 @@
         <v>50</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>475</v>
+        <v>43</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>43</v>
@@ -12394,7 +12335,7 @@
         <v>43</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>93</v>
+        <v>284</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>43</v>
@@ -12403,17 +12344,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D97" t="s" s="2">
-        <v>477</v>
-      </c>
+      <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
         <v>41</v>
       </c>
@@ -12421,26 +12360,24 @@
         <v>50</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>106</v>
+        <v>480</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>43</v>
@@ -12489,7 +12426,7 @@
         <v>43</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -12504,21 +12441,21 @@
         <v>43</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>481</v>
+        <v>43</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>43</v>
+        <v>484</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12538,19 +12475,19 @@
         <v>43</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>130</v>
+        <v>486</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12600,7 +12537,7 @@
         <v>43</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -12618,457 +12555,17 @@
         <v>43</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>93</v>
+        <v>490</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM102" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM102">
+  <autoFilter ref="A1:AM98">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13078,7 +12575,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI101">
+  <conditionalFormatting sqref="A2:AI97">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
